--- a/output/ITAÚ_11863242000125.xlsx
+++ b/output/ITAÚ_11863242000125.xlsx
@@ -1747,10 +1747,10 @@
         <v>44165</v>
       </c>
       <c r="B124">
-        <v>3.014221431394961</v>
+        <v>3.01600196311034</v>
       </c>
       <c r="C124">
-        <v>-0.004880014854889203</v>
+        <v>-0.004438623485618631</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_11863242000125.xlsx
+++ b/output/ITAÚ_11863242000125.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ VEGA HP MULTIMERCADO - FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1371 +383,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40451</v>
       </c>
       <c r="B2">
-        <v>0.005435127678734331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40482</v>
       </c>
       <c r="B3">
-        <v>0.02534146445417518</v>
-      </c>
-      <c r="C3">
         <v>0.01979872816001471</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40512</v>
       </c>
       <c r="B4">
-        <v>0.0425377960672837</v>
-      </c>
-      <c r="C4">
         <v>0.01677132175890561</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
       <c r="B5">
-        <v>0.05737191919296336</v>
-      </c>
-      <c r="C5">
         <v>0.01422885883047864</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40574</v>
       </c>
       <c r="B6">
-        <v>0.07204462798971289</v>
-      </c>
-      <c r="C6">
         <v>0.01387658262000047</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40602</v>
       </c>
       <c r="B7">
-        <v>0.07481773591386887</v>
-      </c>
-      <c r="C7">
         <v>0.002586746719076549</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40633</v>
       </c>
       <c r="B8">
-        <v>0.0863726611136888</v>
-      </c>
-      <c r="C8">
         <v>0.01075059036869663</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40663</v>
       </c>
       <c r="B9">
-        <v>0.09830483744601781</v>
-      </c>
-      <c r="C9">
         <v>0.01098350203336018</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40694</v>
       </c>
       <c r="B10">
-        <v>0.1075104282921966</v>
-      </c>
-      <c r="C10">
         <v>0.008381635528061038</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40724</v>
       </c>
       <c r="B11">
-        <v>0.1192847989543082</v>
-      </c>
-      <c r="C11">
         <v>0.0106313858193352</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40755</v>
       </c>
       <c r="B12">
-        <v>0.1315036198260489</v>
-      </c>
-      <c r="C12">
         <v>0.01091663255246211</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40786</v>
       </c>
       <c r="B13">
-        <v>0.1368186864540804</v>
-      </c>
-      <c r="C13">
         <v>0.004697348320324979</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40816</v>
       </c>
       <c r="B14">
-        <v>0.1424698459990266</v>
-      </c>
-      <c r="C14">
         <v>0.004971029780107772</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40847</v>
       </c>
       <c r="B15">
-        <v>0.1832291585085783</v>
-      </c>
-      <c r="C15">
         <v>0.03567648866382989</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40877</v>
       </c>
       <c r="B16">
-        <v>0.1862749639938763</v>
-      </c>
-      <c r="C16">
         <v>0.002574146743592021</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40908</v>
       </c>
       <c r="B17">
-        <v>0.1612195588912133</v>
-      </c>
-      <c r="C17">
         <v>-0.02112107720650869</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40939</v>
       </c>
       <c r="B18">
-        <v>0.1999884522921178</v>
-      </c>
-      <c r="C18">
         <v>0.03338635928413303</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40968</v>
       </c>
       <c r="B19">
-        <v>0.2114848587019929</v>
-      </c>
-      <c r="C19">
         <v>0.00958043086824345</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40999</v>
       </c>
       <c r="B20">
-        <v>0.2260191705605232</v>
-      </c>
-      <c r="C20">
         <v>0.01199710566263512</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41029</v>
       </c>
       <c r="B21">
-        <v>0.2344887900918327</v>
-      </c>
-      <c r="C21">
         <v>0.006908227648216192</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41060</v>
       </c>
       <c r="B22">
-        <v>0.2511166116606296</v>
-      </c>
-      <c r="C22">
         <v>0.01346939859013219</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41090</v>
       </c>
       <c r="B23">
-        <v>0.2634841677901463</v>
-      </c>
-      <c r="C23">
         <v>0.009885214546948573</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41121</v>
       </c>
       <c r="B24">
-        <v>0.2763157779239229</v>
-      </c>
-      <c r="C24">
         <v>0.01015573480134635</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41152</v>
       </c>
       <c r="B25">
-        <v>0.2814132521846771</v>
-      </c>
-      <c r="C25">
         <v>0.003993897395083268</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41182</v>
       </c>
       <c r="B26">
-        <v>0.2741708692098219</v>
-      </c>
-      <c r="C26">
         <v>-0.005651871449360746</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41213</v>
       </c>
       <c r="B27">
-        <v>0.2690834406746747</v>
-      </c>
-      <c r="C27">
         <v>-0.003992736498757199</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41243</v>
       </c>
       <c r="B28">
-        <v>0.2767700787965262</v>
-      </c>
-      <c r="C28">
         <v>0.006056842186645373</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41274</v>
       </c>
       <c r="B29">
-        <v>0.3217838048663639</v>
-      </c>
-      <c r="C29">
         <v>0.03525593747643851</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41305</v>
       </c>
       <c r="B30">
-        <v>0.3334454293265161</v>
-      </c>
-      <c r="C30">
         <v>0.008822641355733074</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41333</v>
       </c>
       <c r="B31">
-        <v>0.3324787964479485</v>
-      </c>
-      <c r="C31">
         <v>-0.0007249137139836437</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41364</v>
       </c>
       <c r="B32">
-        <v>0.3640626552881432</v>
-      </c>
-      <c r="C32">
         <v>0.02370308550078937</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41394</v>
       </c>
       <c r="B33">
-        <v>0.366471093619628</v>
-      </c>
-      <c r="C33">
         <v>0.001765636147392335</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41425</v>
       </c>
       <c r="B34">
-        <v>0.3859496580405746</v>
-      </c>
-      <c r="C34">
         <v>0.01425464798479559</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41455</v>
       </c>
       <c r="B35">
-        <v>0.4112562062834162</v>
-      </c>
-      <c r="C35">
         <v>0.01825935602785123</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41486</v>
       </c>
       <c r="B36">
-        <v>0.4222833895292526</v>
-      </c>
-      <c r="C36">
         <v>0.007813735873571037</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41517</v>
       </c>
       <c r="B37">
-        <v>0.4329400513034232</v>
-      </c>
-      <c r="C37">
         <v>0.007492643064402005</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41547</v>
       </c>
       <c r="B38">
-        <v>0.4600358115488197</v>
-      </c>
-      <c r="C38">
         <v>0.01890920713727673</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41578</v>
       </c>
       <c r="B39">
-        <v>0.4710852319348351</v>
-      </c>
-      <c r="C39">
         <v>0.007567910525628774</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41608</v>
       </c>
       <c r="B40">
-        <v>0.4886511097064434</v>
-      </c>
-      <c r="C40">
         <v>0.01194076141224332</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41639</v>
       </c>
       <c r="B41">
-        <v>0.5188146199833672</v>
-      </c>
-      <c r="C41">
         <v>0.02026231000685708</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41670</v>
       </c>
       <c r="B42">
-        <v>0.5390994757984329</v>
-      </c>
-      <c r="C42">
         <v>0.01335571540342939</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41698</v>
       </c>
       <c r="B43">
-        <v>0.5585512191073212</v>
-      </c>
-      <c r="C43">
         <v>0.0126383925241722</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41729</v>
       </c>
       <c r="B44">
-        <v>0.5757306778026625</v>
-      </c>
-      <c r="C44">
         <v>0.01102271037661562</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41759</v>
       </c>
       <c r="B45">
-        <v>0.5911433566982607</v>
-      </c>
-      <c r="C45">
         <v>0.009781290110497221</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41790</v>
       </c>
       <c r="B46">
-        <v>0.6134398934489875</v>
-      </c>
-      <c r="C46">
         <v>0.01401290251872322</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41820</v>
       </c>
       <c r="B47">
-        <v>0.62881629069482</v>
-      </c>
-      <c r="C47">
         <v>0.009530195273009578</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41851</v>
       </c>
       <c r="B48">
-        <v>0.6502804951899017</v>
-      </c>
-      <c r="C48">
         <v>0.01317779335687108</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41882</v>
       </c>
       <c r="B49">
-        <v>0.6597366439883598</v>
-      </c>
-      <c r="C49">
         <v>0.005730025184215615</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41912</v>
       </c>
       <c r="B50">
-        <v>0.6736242256866865</v>
-      </c>
-      <c r="C50">
         <v>0.008367340534793932</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41943</v>
       </c>
       <c r="B51">
-        <v>0.6641097531609168</v>
-      </c>
-      <c r="C51">
         <v>-0.005684951484175582</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41973</v>
       </c>
       <c r="B52">
-        <v>0.673914771478761</v>
-      </c>
-      <c r="C52">
         <v>0.005892050268451188</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42004</v>
       </c>
       <c r="B53">
-        <v>0.679069106497078</v>
-      </c>
-      <c r="C53">
         <v>0.003079209949120365</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42035</v>
       </c>
       <c r="B54">
-        <v>0.6932696661902911</v>
-      </c>
-      <c r="C54">
         <v>0.008457400376354229</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42063</v>
       </c>
       <c r="B55">
-        <v>0.7233606131676835</v>
-      </c>
-      <c r="C55">
         <v>0.01777091244130924</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42094</v>
       </c>
       <c r="B56">
-        <v>0.7485120866171722</v>
-      </c>
-      <c r="C56">
         <v>0.01459443441918884</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42124</v>
       </c>
       <c r="B57">
-        <v>0.7514166667560704</v>
-      </c>
-      <c r="C57">
         <v>0.00166117246836861</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42155</v>
       </c>
       <c r="B58">
-        <v>0.7923995210432107</v>
-      </c>
-      <c r="C58">
         <v>0.02339983115671029</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
       <c r="B59">
-        <v>0.8113841868770251</v>
-      </c>
-      <c r="C59">
         <v>0.01059176015778274</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42216</v>
       </c>
       <c r="B60">
-        <v>0.8504891731948443</v>
-      </c>
-      <c r="C60">
         <v>0.02158845517208552</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42247</v>
       </c>
       <c r="B61">
-        <v>0.8195780853763788</v>
-      </c>
-      <c r="C61">
         <v>-0.01670427920693962</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42277</v>
       </c>
       <c r="B62">
-        <v>0.8691681758825145</v>
-      </c>
-      <c r="C62">
         <v>0.02725362044348767</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42308</v>
       </c>
       <c r="B63">
-        <v>0.8761715096004463</v>
-      </c>
-      <c r="C63">
         <v>0.003746764902320843</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42338</v>
       </c>
       <c r="B64">
-        <v>0.8611699252042087</v>
-      </c>
-      <c r="C64">
         <v>-0.007995849163828561</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42369</v>
       </c>
       <c r="B65">
-        <v>0.8192802247355611</v>
-      </c>
-      <c r="C65">
         <v>-0.02250718749608605</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42400</v>
       </c>
       <c r="B66">
-        <v>0.8361785981765353</v>
-      </c>
-      <c r="C66">
         <v>0.009288493994063174</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42429</v>
       </c>
       <c r="B67">
-        <v>0.8029086179354046</v>
-      </c>
-      <c r="C67">
         <v>-0.0181191417186598</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42460</v>
       </c>
       <c r="B68">
-        <v>0.8722010097027082</v>
-      </c>
-      <c r="C68">
         <v>0.03843366828356154</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42490</v>
       </c>
       <c r="B69">
-        <v>0.9365595847584693</v>
-      </c>
-      <c r="C69">
         <v>0.03437588951305015</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42521</v>
       </c>
       <c r="B70">
-        <v>0.9259305243468892</v>
-      </c>
-      <c r="C70">
         <v>-0.005488630711512954</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42551</v>
       </c>
       <c r="B71">
-        <v>1.013177748776299</v>
-      </c>
-      <c r="C71">
         <v>0.04530133529037683</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42582</v>
       </c>
       <c r="B72">
-        <v>1.05049362062288</v>
-      </c>
-      <c r="C72">
         <v>0.01853580582701331</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42613</v>
       </c>
       <c r="B73">
-        <v>1.080019763745991</v>
-      </c>
-      <c r="C73">
         <v>0.01439952937485423</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42643</v>
       </c>
       <c r="B74">
-        <v>1.143801050938949</v>
-      </c>
-      <c r="C74">
         <v>0.0306637890200101</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42674</v>
       </c>
       <c r="B75">
-        <v>1.202698067329184</v>
-      </c>
-      <c r="C75">
         <v>0.02747317264558613</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42704</v>
       </c>
       <c r="B76">
-        <v>1.260952254811878</v>
-      </c>
-      <c r="C76">
         <v>0.02644674199643204</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42735</v>
       </c>
       <c r="B77">
-        <v>1.311642693631605</v>
-      </c>
-      <c r="C77">
         <v>0.02241995102366467</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42766</v>
       </c>
       <c r="B78">
-        <v>1.375553697475607</v>
-      </c>
-      <c r="C78">
         <v>0.02764744050629941</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42794</v>
       </c>
       <c r="B79">
-        <v>1.426121051773817</v>
-      </c>
-      <c r="C79">
         <v>0.02128655494167342</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42825</v>
       </c>
       <c r="B80">
-        <v>1.458103911230117</v>
-      </c>
-      <c r="C80">
         <v>0.01318271379448133</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42855</v>
       </c>
       <c r="B81">
-        <v>1.469980787305948</v>
-      </c>
-      <c r="C81">
         <v>0.004831722540927119</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42886</v>
       </c>
       <c r="B82">
-        <v>1.382905608118975</v>
-      </c>
-      <c r="C82">
         <v>-0.0352533831981533</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42916</v>
       </c>
       <c r="B83">
-        <v>1.399221524537368</v>
-      </c>
-      <c r="C83">
         <v>0.006847067866557977</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42947</v>
       </c>
       <c r="B84">
-        <v>1.436701736652376</v>
-      </c>
-      <c r="C84">
         <v>0.01562182221678587</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42978</v>
       </c>
       <c r="B85">
-        <v>1.459593897153422</v>
-      </c>
-      <c r="C85">
         <v>0.009394732295999297</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43008</v>
       </c>
       <c r="B86">
-        <v>1.555957958930928</v>
-      </c>
-      <c r="C86">
         <v>0.03917885057733805</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43039</v>
       </c>
       <c r="B87">
-        <v>1.560462930443494</v>
-      </c>
-      <c r="C87">
         <v>0.001762537406698739</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43069</v>
       </c>
       <c r="B88">
-        <v>1.566755553457549</v>
-      </c>
-      <c r="C88">
         <v>0.00245761144956913</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43100</v>
       </c>
       <c r="B89">
-        <v>1.580892717794989</v>
-      </c>
-      <c r="C89">
         <v>0.005507795363838497</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43131</v>
       </c>
       <c r="B90">
-        <v>1.636788305448967</v>
-      </c>
-      <c r="C90">
         <v>0.02165746265568647</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43159</v>
       </c>
       <c r="B91">
-        <v>1.666372577236756</v>
-      </c>
-      <c r="C91">
         <v>0.01121981303036446</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43190</v>
       </c>
       <c r="B92">
-        <v>1.695386680947852</v>
-      </c>
-      <c r="C92">
         <v>0.0108814889407407</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43220</v>
       </c>
       <c r="B93">
-        <v>1.705090656821726</v>
-      </c>
-      <c r="C93">
         <v>0.003600216600632811</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43251</v>
       </c>
       <c r="B94">
-        <v>1.758115020047074</v>
-      </c>
-      <c r="C94">
         <v>0.019601695452103</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43281</v>
       </c>
       <c r="B95">
-        <v>1.879567647574879</v>
-      </c>
-      <c r="C95">
         <v>0.04403464926046907</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43312</v>
       </c>
       <c r="B96">
-        <v>1.853022159017594</v>
-      </c>
-      <c r="C96">
         <v>-0.009218567440025471</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43343</v>
       </c>
       <c r="B97">
-        <v>1.887215468232734</v>
-      </c>
-      <c r="C97">
         <v>0.01198494344218948</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43373</v>
       </c>
       <c r="B98">
-        <v>1.868279860651156</v>
-      </c>
-      <c r="C98">
         <v>-0.006558432437731354</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43404</v>
       </c>
       <c r="B99">
-        <v>1.969424810035817</v>
-      </c>
-      <c r="C99">
         <v>0.03526327774783411</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43434</v>
       </c>
       <c r="B100">
-        <v>1.949751182981721</v>
-      </c>
-      <c r="C100">
         <v>-0.006625399972278845</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43465</v>
       </c>
       <c r="B101">
-        <v>1.988239088659575</v>
-      </c>
-      <c r="C101">
         <v>0.01304784820492855</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43496</v>
       </c>
       <c r="B102">
-        <v>2.038420414006784</v>
-      </c>
-      <c r="C102">
         <v>0.01679294188261182</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43524</v>
       </c>
       <c r="B103">
-        <v>1.995906903237328</v>
-      </c>
-      <c r="C103">
         <v>-0.01399197773075578</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43555</v>
       </c>
       <c r="B104">
-        <v>2.016777239545789</v>
-      </c>
-      <c r="C104">
         <v>0.006966283326731215</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43585</v>
       </c>
       <c r="B105">
-        <v>2.032780177969295</v>
-      </c>
-      <c r="C105">
         <v>0.005304647029859888</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43616</v>
       </c>
       <c r="B106">
-        <v>2.055575489872982</v>
-      </c>
-      <c r="C106">
         <v>0.007516308656089654</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43646</v>
       </c>
       <c r="B107">
-        <v>2.149645224959395</v>
-      </c>
-      <c r="C107">
         <v>0.0307862579072864</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43677</v>
       </c>
       <c r="B108">
-        <v>2.172020957139181</v>
-      </c>
-      <c r="C108">
         <v>0.00710420716672111</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43708</v>
       </c>
       <c r="B109">
-        <v>2.233306710534952</v>
-      </c>
-      <c r="C109">
         <v>0.01932072777067817</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43738</v>
       </c>
       <c r="B110">
-        <v>2.220860446632961</v>
-      </c>
-      <c r="C110">
         <v>-0.003849391665021518</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43769</v>
       </c>
       <c r="B111">
-        <v>2.279890690801636</v>
-      </c>
-      <c r="C111">
         <v>0.01832747650721256</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43799</v>
       </c>
       <c r="B112">
-        <v>2.335487149907682</v>
-      </c>
-      <c r="C112">
         <v>0.01695070487012407</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43830</v>
       </c>
       <c r="B113">
-        <v>2.428009940781911</v>
-      </c>
-      <c r="C113">
         <v>0.02773891390251348</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43861</v>
       </c>
       <c r="B114">
-        <v>2.453514770191348</v>
-      </c>
-      <c r="C114">
         <v>0.007440127027058763</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43890</v>
       </c>
       <c r="B115">
-        <v>2.49853122713805</v>
-      </c>
-      <c r="C115">
         <v>0.0130349687035527</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43921</v>
       </c>
       <c r="B116">
-        <v>2.837395203819483</v>
-      </c>
-      <c r="C116">
         <v>0.09685892584089872</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43951</v>
       </c>
       <c r="B117">
-        <v>2.896266764536092</v>
-      </c>
-      <c r="C117">
         <v>0.01534154226752893</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43982</v>
       </c>
       <c r="B118">
-        <v>2.895856937943847</v>
-      </c>
-      <c r="C118">
         <v>-0.0001051844283289638</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44012</v>
       </c>
       <c r="B119">
-        <v>2.976006320809565</v>
-      </c>
-      <c r="C119">
         <v>0.02057297897289301</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44043</v>
       </c>
       <c r="B120">
-        <v>3.000944688332338</v>
-      </c>
-      <c r="C120">
         <v>0.006272215260889169</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44074</v>
       </c>
       <c r="B121">
-        <v>3.059703502846988</v>
-      </c>
-      <c r="C121">
         <v>0.01468623514991441</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>44104</v>
       </c>
       <c r="B122">
-        <v>3.012435047800587</v>
-      </c>
-      <c r="C122">
         <v>-0.01164332691125169</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44135</v>
       </c>
       <c r="B123">
-        <v>3.033906957269678</v>
-      </c>
-      <c r="C123">
         <v>0.005351341320991798</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44165</v>
       </c>
       <c r="B124">
-        <v>3.01600196311034</v>
-      </c>
-      <c r="C124">
-        <v>-0.004438623485618631</v>
+        <v>-0.004478976366606324</v>
       </c>
     </row>
   </sheetData>
